--- a/tests/data/test_data.xlsx
+++ b/tests/data/test_data.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24426"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12640" activeTab="2"/>
+    <workbookView xWindow="440" yWindow="620" windowWidth="22260" windowHeight="12640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dept" sheetId="1" r:id="rId1"/>
     <sheet name="Emp" sheetId="2" r:id="rId2"/>
-    <sheet name="Salgrade" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,57 +23,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
-  <si>
-    <t>SMITH</t>
-  </si>
-  <si>
-    <t>CLERK</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>JONES</t>
   </si>
   <si>
-    <t>MANAGER</t>
-  </si>
-  <si>
     <t>CLARK</t>
   </si>
   <si>
-    <t>SCOTT</t>
-  </si>
-  <si>
-    <t>ANALYST</t>
-  </si>
-  <si>
-    <t>KING</t>
-  </si>
-  <si>
-    <t>PRESIDENT</t>
-  </si>
-  <si>
-    <t>ADAMS</t>
-  </si>
-  <si>
-    <t>FORD</t>
-  </si>
-  <si>
-    <t>MILLER</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>ACCOUNTING</t>
-  </si>
-  <si>
-    <t>NEW YORK</t>
-  </si>
-  <si>
-    <t>RESEARCH</t>
-  </si>
-  <si>
-    <t>DALLAS</t>
   </si>
   <si>
     <t>eName</t>
@@ -91,41 +48,6 @@
   <si>
     <t>dName</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>location</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>comm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>salary</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hireDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mgr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiSal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>loSal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dummy</t>
   </si>
 </sst>
 </file>
@@ -213,9 +135,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
@@ -517,58 +438,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>29</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
         <v>2</v>
       </c>
     </row>
@@ -586,331 +480,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.1640625" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>7566</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>7839</v>
-      </c>
-      <c r="E2" s="1">
-        <v>29678</v>
-      </c>
-      <c r="F2">
-        <v>2975</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>7782</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>7839</v>
-      </c>
-      <c r="E3" s="1">
-        <v>29746</v>
-      </c>
-      <c r="F3">
-        <v>2450</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>7369</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
         <v>1</v>
-      </c>
-      <c r="D4">
-        <v>7902</v>
-      </c>
-      <c r="E4" s="1">
-        <v>29572</v>
-      </c>
-      <c r="F4">
-        <v>800</v>
-      </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>7839</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>29907</v>
-      </c>
-      <c r="F5">
-        <v>5000</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>7876</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>7788</v>
-      </c>
-      <c r="E6" s="1">
-        <v>31920</v>
-      </c>
-      <c r="F6">
-        <v>1100</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>7902</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>7566</v>
-      </c>
-      <c r="E7" s="1">
-        <v>29923</v>
-      </c>
-      <c r="F7">
-        <v>3000</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>7934</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>7782</v>
-      </c>
-      <c r="E8" s="1">
-        <v>29974</v>
-      </c>
-      <c r="F8">
-        <v>1300</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>7788</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>7566</v>
-      </c>
-      <c r="E9" s="1">
-        <v>31886</v>
-      </c>
-      <c r="F9">
-        <v>3000</v>
-      </c>
-      <c r="H9">
-        <v>20</v>
-      </c>
-      <c r="I9">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>700</v>
-      </c>
-      <c r="D2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1201</v>
-      </c>
-      <c r="D3">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1401</v>
-      </c>
-      <c r="D4">
-        <v>2000</v>
       </c>
     </row>
   </sheetData>
